--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>2024-03-15</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16-03-2024</t>
+          <t>2024-03-16</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16-03-2024</t>
+          <t>2024-03-16</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16-03-2024</t>
+          <t>2024-03-16</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16-03-2024</t>
+          <t>2024-03-16</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16-03-2024</t>
+          <t>2024-03-16</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>2024-03-17</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>2024-03-18</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>2024-03-21</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>2024-03-22</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>2024-03-23</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>2024-03-25</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>2024-03-26</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>2024-03-27</t>
         </is>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>2024-03-28</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>2024-03-28</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>2024-03-28</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>2024-03-28</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>2024-03-28</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>2024-03-30</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>2024-04-01</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>2024-04-02</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>2024-04-03</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>2024-04-04</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -8162,7 +8162,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>2024-04-05</t>
         </is>
       </c>
     </row>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>2024-04-06</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>2024-04-07</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>2024-04-07</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>2024-04-07</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8976,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>2024-04-07</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>2024-04-07</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>2024-04-07</t>
         </is>
       </c>
     </row>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>2024-04-08</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>2024-04-09</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>2024-04-10</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>2024-04-11</t>
         </is>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>2024-04-11</t>
         </is>
       </c>
     </row>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>2024-04-11</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>2024-04-11</t>
         </is>
       </c>
     </row>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>2024-04-11</t>
         </is>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>2024-04-11</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>2024-04-11</t>
         </is>
       </c>
     </row>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>2024-04-11</t>
         </is>
       </c>
     </row>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>2024-04-12</t>
         </is>
       </c>
     </row>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>2024-04-12</t>
         </is>
       </c>
     </row>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>2024-04-12</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>2024-04-12</t>
         </is>
       </c>
     </row>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>2024-04-12</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>2024-04-12</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>2024-04-12</t>
         </is>
       </c>
     </row>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>14-04-2024</t>
+          <t>2024-04-14</t>
         </is>
       </c>
     </row>
@@ -12054,12 +12054,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -12084,19 +12084,19 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-04</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -12128,12 +12128,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -12165,12 +12165,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12202,12 +12202,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12239,12 +12239,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12276,12 +12276,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -12313,12 +12313,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -12350,12 +12350,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12370,7 +12370,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -12387,12 +12387,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -12417,19 +12417,19 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-06</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12461,12 +12461,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -12498,12 +12498,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12535,12 +12535,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -12572,12 +12572,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12609,12 +12609,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -12646,12 +12646,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -12683,12 +12683,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ DIỄM MY</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>213714</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12720,12 +12720,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>213714</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -12740,7 +12740,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -12750,19 +12750,19 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-07</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -12794,12 +12794,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -12831,12 +12831,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12905,12 +12905,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ HỒNG YẾN</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>172824</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12942,12 +12942,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN THỊ HỒNG YẾN</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>172824</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -12979,12 +12979,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -13016,12 +13016,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -13053,12 +13053,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -13090,12 +13090,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -13127,12 +13127,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -13164,12 +13164,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -13201,12 +13201,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>TRƯƠNG TƯ XUÂN</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -13231,19 +13231,19 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-08</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TRƯƠNG THÀNH TAM</t>
+          <t>TRƯƠNG TƯ XUÂN</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>080262</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -13275,12 +13275,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>LÊ THANH TUẤN</t>
+          <t>TRƯƠNG THÀNH TAM</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>101339</t>
+          <t>080427</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -13295,7 +13295,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -13312,12 +13312,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ DIỄM MY</t>
+          <t>LÊ THANH TUẤN</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>213714</t>
+          <t>101339</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -13349,12 +13349,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>213714</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -13386,12 +13386,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -13423,12 +13423,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ HỒNG YẾN</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>172824</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -13460,12 +13460,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>NGUYỄN THỊ HỒNG YẾN</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>172824</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -13497,12 +13497,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -13534,12 +13534,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -13571,12 +13571,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -13608,12 +13608,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -13645,12 +13645,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -13682,12 +13682,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -13719,12 +13719,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -13756,12 +13756,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -13793,12 +13793,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -13830,12 +13830,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -13867,12 +13867,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ HỒNG YẾN</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>172824</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -13904,12 +13904,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>NGUYỄN THỊ HỒNG YẾN</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>172824</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -13941,12 +13941,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -13956,12 +13956,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -13971,19 +13971,19 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -14008,19 +14008,19 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-05-10</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -14030,12 +14030,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:0</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -14052,12 +14052,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -14089,12 +14089,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -14126,12 +14126,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -14173,12 +14173,12 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>7:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>2024-05-12</t>
+          <t>2024-05-11</t>
         </is>
       </c>
     </row>
@@ -14210,12 +14210,12 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>7:30</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>19:0</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -14230,19 +14230,19 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-12</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -14252,12 +14252,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:0</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -14274,12 +14274,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -14311,12 +14311,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -14348,12 +14348,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>TRƯƠNG TƯ XUÂN</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -14385,12 +14385,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>TRƯƠNG THÀNH TAM</t>
+          <t>TRƯƠNG TƯ XUÂN</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>080262</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -14405,7 +14405,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -14422,12 +14422,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>LÊ THANH TUẤN</t>
+          <t>TRƯƠNG THÀNH TAM</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>101339</t>
+          <t>080427</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -14459,12 +14459,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ DIỄM MY</t>
+          <t>LÊ THANH TUẤN</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>213714</t>
+          <t>101339</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -14496,12 +14496,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>213714</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -14533,12 +14533,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -14570,12 +14570,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -14607,12 +14607,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -14644,12 +14644,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -14681,12 +14681,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -14718,12 +14718,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -14748,19 +14748,19 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-13</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -14792,12 +14792,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -14829,12 +14829,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14866,12 +14866,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14903,12 +14903,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14923,7 +14923,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -14940,12 +14940,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14977,12 +14977,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -15014,12 +15014,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>TRƯƠNG TƯ XUÂN</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -15051,12 +15051,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>TRƯƠNG THÀNH TAM</t>
+          <t>TRƯƠNG TƯ XUÂN</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>080262</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -15088,12 +15088,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>LÊ THANH TUẤN</t>
+          <t>TRƯƠNG THÀNH TAM</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>101339</t>
+          <t>080427</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -15125,37 +15125,111 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
+          <t>LÊ THANH TUẤN</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>101339</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
           <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
-      <c r="B398" t="inlineStr">
+      <c r="B399" t="inlineStr">
         <is>
           <t>213714</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>TEST REQUEST</t>
-        </is>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G398" t="inlineStr">
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
         <is>
           <t>2024-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>NGUYỄN TUẤN ANH</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>224057</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
         </is>
       </c>
     </row>

--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G400"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15199,35 +15199,257 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
+          <t>NGUYỄN MAI PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>234170</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
           <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
-      <c r="B400" t="inlineStr">
+      <c r="B401" t="inlineStr">
         <is>
           <t>224057</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>TEST REQUEST</t>
-        </is>
-      </c>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>TRƯƠNG VĂN MINH</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>203591</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>LÊ MINH THẮNG</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>223906</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>

--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12054,12 +12054,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12091,12 +12091,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -12121,19 +12121,19 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-04</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -12158,19 +12158,19 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-05</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12202,12 +12202,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -12239,12 +12239,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -12276,12 +12276,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12313,12 +12313,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -12350,12 +12350,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12387,12 +12387,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -12424,12 +12424,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -12454,19 +12454,19 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-06</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-06</t>
         </is>
       </c>
     </row>
@@ -12528,19 +12528,19 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-06</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -12572,12 +12572,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12609,12 +12609,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -12646,12 +12646,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -12683,12 +12683,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12720,12 +12720,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ DIỄM MY</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>213714</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -12757,12 +12757,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -12787,19 +12787,19 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-07</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -12824,19 +12824,19 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-07</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>213714</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12861,19 +12861,19 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-07</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -12905,12 +12905,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12942,12 +12942,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ HỒNG YẾN</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>172824</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -12979,12 +12979,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -13016,12 +13016,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -13053,12 +13053,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>NGUYỄN THỊ HỒNG YẾN</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>172824</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -13090,12 +13090,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -13127,12 +13127,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -13164,12 +13164,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -13201,12 +13201,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -13238,12 +13238,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TRƯƠNG TƯ XUÂN</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -13268,19 +13268,19 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-08</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>TRƯƠNG THÀNH TAM</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -13305,19 +13305,19 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-08</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>LÊ THANH TUẤN</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>101339</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -13342,19 +13342,19 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-08</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ DIỄM MY</t>
+          <t>TRƯƠNG TƯ XUÂN</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>213714</t>
+          <t>080262</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -13386,12 +13386,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>TRƯƠNG THÀNH TAM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>080427</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -13423,12 +13423,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ THANH TUẤN</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>101339</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -13460,12 +13460,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ HỒNG YẾN</t>
+          <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>172824</t>
+          <t>213714</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -13497,12 +13497,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -13534,12 +13534,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -13571,12 +13571,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>NGUYỄN THỊ HỒNG YẾN</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>172824</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -13608,12 +13608,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -13645,12 +13645,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -13682,12 +13682,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -13719,12 +13719,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -13756,12 +13756,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -13830,12 +13830,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -13850,7 +13850,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -13867,12 +13867,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -13904,12 +13904,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ HỒNG YẾN</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>172824</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -13941,12 +13941,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -13978,12 +13978,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -13993,12 +13993,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -14008,19 +14008,19 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>NGUYỄN THỊ HỒNG YẾN</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>172824</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -14030,12 +14030,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -14045,19 +14045,19 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -14082,19 +14082,19 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -14104,12 +14104,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -14119,19 +14119,19 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-05-10</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -14141,12 +14141,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:0</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -14163,12 +14163,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -14200,27 +14200,27 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>7:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -14230,19 +14230,19 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>2024-05-12</t>
+          <t>2024-05-11</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -14252,12 +14252,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>19:0</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -14267,19 +14267,19 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-11</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -14304,34 +14304,34 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-11</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>7:30</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -14341,29 +14341,29 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-12</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -14378,19 +14378,19 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-12</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>TRƯƠNG TƯ XUÂN</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -14400,12 +14400,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:0</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -14422,12 +14422,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>TRƯƠNG THÀNH TAM</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -14459,12 +14459,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>LÊ THANH TUẤN</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>101339</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -14496,12 +14496,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ DIỄM MY</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>213714</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -14533,12 +14533,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>TRƯƠNG TƯ XUÂN</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>080262</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -14570,12 +14570,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>TRƯƠNG THÀNH TAM</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>080427</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -14607,12 +14607,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>LÊ THANH TUẤN</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>101339</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -14644,12 +14644,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>213714</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -14681,12 +14681,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -14718,12 +14718,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -14755,12 +14755,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -14785,19 +14785,19 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-13</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -14822,19 +14822,19 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-13</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14859,19 +14859,19 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-13</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14896,19 +14896,19 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-13</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14940,12 +14940,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -14977,12 +14977,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -15014,12 +15014,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -15051,12 +15051,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>TRƯƠNG TƯ XUÂN</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -15088,12 +15088,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>TRƯƠNG THÀNH TAM</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -15125,12 +15125,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>LÊ THANH TUẤN</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>101339</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -15145,7 +15145,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -15162,12 +15162,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ DIỄM MY</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>213714</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -15199,12 +15199,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
+          <t>TRƯƠNG TƯ XUÂN</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>234170</t>
+          <t>080262</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -15229,19 +15229,19 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>TRƯƠNG THÀNH TAM</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>080427</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -15266,19 +15266,19 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ THANH TUẤN</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>101339</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -15303,19 +15303,19 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>213714</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -15340,19 +15340,19 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -15384,12 +15384,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -15421,37 +15421,1258 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>TRƯƠNG VĂN MINH</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>203591</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
           <t>LÊ MINH THẮNG</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr">
+      <c r="B408" t="inlineStr">
         <is>
           <t>223906</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr">
-        <is>
-          <t>TEST REQUEST</t>
-        </is>
-      </c>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
         <is>
           <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>TRẦN VĂN LƯU</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>234102</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>PHẠM NG NGỌC TUYẾT</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>234172</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>NGUYỄN QUANG QUÍ</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>203638</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>TRƯƠNG VĂN MINH</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>203591</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>NGUYỄN TUẤN ANH</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>224057</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>LÊ MINH THẮNG</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>223906</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>172684</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>LÊ QUỐC TRUNG</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>224016</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>LÊ HUỲNH ANH KHOA</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>234168</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>NGUYỄN QUANG QUÍ</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>203638</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>193273</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>172684</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>LÊ HUỲNH ANH KHOA</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>234168</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>19:0</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ DIỄM MY</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>213714</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>TRƯƠNG TƯ XUÂN</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>080262</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>NGUYỄN TUẤN ANH</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>224057</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>TRƯƠNG THÀNH TAM</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>080427</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>LÊ THANH TUẤN</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>101339</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>LÊ MINH THẮNG</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>223906</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>NGUYỄN QUANG QUÍ</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>203638</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>LÊ QUỐC TRUNG</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>224016</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>NGUYỄN MAI PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>234170</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>193273</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
         </is>
       </c>
     </row>

--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G439"/>
+  <dimension ref="A1:H436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>btn_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +511,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -543,6 +553,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +595,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -617,6 +637,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -654,6 +679,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -691,6 +721,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -728,6 +763,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -765,6 +805,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -802,6 +847,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -839,6 +889,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -876,6 +931,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -913,6 +973,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -922,7 +987,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -948,6 +1013,11 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -959,7 +1029,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -985,6 +1055,11 @@
       <c r="G15" t="inlineStr">
         <is>
           <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -1024,6 +1099,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1061,6 +1141,11 @@
           <t>2024-03-16</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1098,6 +1183,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1135,6 +1225,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1172,6 +1267,11 @@
           <t>2024-03-16</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1209,6 +1309,11 @@
           <t>2024-03-16</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1246,6 +1351,11 @@
           <t>2024-03-16</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1283,6 +1393,11 @@
           <t>2024-03-16</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1292,7 +1407,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1318,6 +1433,11 @@
       <c r="G24" t="inlineStr">
         <is>
           <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1449,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1355,6 +1475,11 @@
       <c r="G25" t="inlineStr">
         <is>
           <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -1394,6 +1519,11 @@
           <t>2024-03-17</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1431,6 +1561,11 @@
           <t>2024-03-17</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1468,6 +1603,11 @@
           <t>2024-03-17</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1505,6 +1645,11 @@
           <t>2024-03-17</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1542,6 +1687,11 @@
           <t>2024-03-17</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1579,6 +1729,11 @@
           <t>2024-03-17</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1616,6 +1771,11 @@
           <t>2024-03-17</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1653,6 +1813,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1690,6 +1855,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1727,6 +1897,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1764,6 +1939,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1801,6 +1981,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1838,6 +2023,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1875,6 +2065,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1912,6 +2107,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1949,6 +2149,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1958,7 +2163,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1984,6 +2189,11 @@
       <c r="G42" t="inlineStr">
         <is>
           <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -1995,7 +2205,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2021,6 +2231,11 @@
       <c r="G43" t="inlineStr">
         <is>
           <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -2060,6 +2275,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2097,6 +2317,11 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2106,7 +2331,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2132,6 +2357,11 @@
       <c r="G46" t="inlineStr">
         <is>
           <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -2171,6 +2401,11 @@
           <t>2024-03-19</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2208,6 +2443,11 @@
           <t>2024-03-19</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2245,6 +2485,11 @@
           <t>2024-03-19</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2282,6 +2527,11 @@
           <t>2024-03-19</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2319,6 +2569,11 @@
           <t>2024-03-19</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2356,6 +2611,11 @@
           <t>2024-03-19</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2393,6 +2653,11 @@
           <t>2024-03-19</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2430,6 +2695,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2467,6 +2737,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2504,6 +2779,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2541,6 +2821,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2578,6 +2863,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2587,7 +2877,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2613,6 +2903,11 @@
       <c r="G59" t="inlineStr">
         <is>
           <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2919,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2650,6 +2945,11 @@
       <c r="G60" t="inlineStr">
         <is>
           <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -2689,6 +2989,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2726,6 +3031,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2763,6 +3073,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2800,6 +3115,11 @@
           <t>2024-03-20</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2837,6 +3157,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2874,6 +3199,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2911,6 +3241,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2948,6 +3283,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2985,6 +3325,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3022,6 +3367,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3059,6 +3409,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3096,6 +3451,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3105,7 +3465,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3131,6 +3491,11 @@
       <c r="G73" t="inlineStr">
         <is>
           <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3507,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3168,6 +3533,11 @@
       <c r="G74" t="inlineStr">
         <is>
           <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -3207,6 +3577,11 @@
           <t>2024-03-21</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3216,7 +3591,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3242,6 +3617,11 @@
       <c r="G76" t="inlineStr">
         <is>
           <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3633,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3279,6 +3659,11 @@
       <c r="G77" t="inlineStr">
         <is>
           <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -3318,6 +3703,11 @@
           <t>2024-03-22</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3355,6 +3745,11 @@
           <t>2024-03-22</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3392,6 +3787,11 @@
           <t>2024-03-22</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3429,6 +3829,11 @@
           <t>2024-03-22</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3466,6 +3871,11 @@
           <t>2024-03-22</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3503,6 +3913,11 @@
           <t>2024-03-22</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3540,6 +3955,11 @@
           <t>2024-03-22</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3549,7 +3969,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3575,6 +3995,11 @@
       <c r="G85" t="inlineStr">
         <is>
           <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -3614,6 +4039,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3651,6 +4081,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3688,6 +4123,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3725,6 +4165,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3762,6 +4207,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3799,6 +4249,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3836,6 +4291,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3873,6 +4333,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3910,6 +4375,11 @@
           <t>2024-03-23</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3947,6 +4417,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3984,6 +4459,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4021,6 +4501,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4058,6 +4543,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4095,6 +4585,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4132,6 +4627,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4169,6 +4669,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4206,6 +4711,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4215,7 +4725,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4241,6 +4751,11 @@
       <c r="G103" t="inlineStr">
         <is>
           <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -4280,6 +4795,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4289,7 +4809,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4315,6 +4835,11 @@
       <c r="G105" t="inlineStr">
         <is>
           <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -4354,6 +4879,11 @@
           <t>2024-03-25</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4363,7 +4893,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>070032</t>
+          <t>70032</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4389,6 +4919,11 @@
       <c r="G107" t="inlineStr">
         <is>
           <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4935,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4426,6 +4961,11 @@
       <c r="G108" t="inlineStr">
         <is>
           <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4977,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4463,6 +5003,11 @@
       <c r="G109" t="inlineStr">
         <is>
           <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -4502,6 +5047,11 @@
           <t>2024-03-26</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4539,6 +5089,11 @@
           <t>2024-03-26</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4576,6 +5131,11 @@
           <t>2024-03-26</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4613,6 +5173,11 @@
           <t>2024-03-26</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4650,6 +5215,11 @@
           <t>2024-03-26</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4687,6 +5257,11 @@
           <t>2024-03-26</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4724,6 +5299,11 @@
           <t>2024-03-26</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4761,6 +5341,11 @@
           <t>2024-03-26</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4770,7 +5355,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4796,6 +5381,11 @@
       <c r="G118" t="inlineStr">
         <is>
           <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -4807,7 +5397,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4833,6 +5423,11 @@
       <c r="G119" t="inlineStr">
         <is>
           <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -4872,6 +5467,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4909,6 +5509,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4946,6 +5551,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4983,6 +5593,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5020,6 +5635,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5057,6 +5677,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5094,6 +5719,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5131,6 +5761,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5168,6 +5803,11 @@
           <t>2024-03-27</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5205,6 +5845,11 @@
           <t>2024-03-28</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5242,6 +5887,11 @@
           <t>2024-03-28</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5279,6 +5929,11 @@
           <t>2024-03-28</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5316,6 +5971,11 @@
           <t>2024-03-28</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5353,6 +6013,11 @@
           <t>2024-03-28</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5362,7 +6027,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5388,6 +6053,11 @@
       <c r="G134" t="inlineStr">
         <is>
           <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -5399,7 +6069,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5425,6 +6095,11 @@
       <c r="G135" t="inlineStr">
         <is>
           <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -5464,6 +6139,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5501,6 +6181,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5538,6 +6223,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5575,6 +6265,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5612,6 +6307,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5649,6 +6349,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5686,6 +6391,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5723,6 +6433,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5760,6 +6475,11 @@
           <t>2024-03-30</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5797,6 +6517,11 @@
           <t>2024-03-30</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5834,6 +6559,11 @@
           <t>2024-03-30</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5871,6 +6601,11 @@
           <t>2024-03-30</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5908,6 +6643,11 @@
           <t>2024-03-30</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5945,6 +6685,11 @@
           <t>2024-03-30</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5982,6 +6727,11 @@
           <t>2024-03-30</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5991,7 +6741,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6017,6 +6767,11 @@
       <c r="G151" t="inlineStr">
         <is>
           <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -6056,6 +6811,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6093,6 +6853,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6130,6 +6895,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6167,6 +6937,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6204,6 +6979,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6241,6 +7021,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6278,6 +7063,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6315,6 +7105,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6352,6 +7147,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6389,6 +7189,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6426,6 +7231,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6435,7 +7245,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6461,6 +7271,11 @@
       <c r="G163" t="inlineStr">
         <is>
           <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -6472,7 +7287,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6498,6 +7313,11 @@
       <c r="G164" t="inlineStr">
         <is>
           <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -6509,7 +7329,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>070032</t>
+          <t>70032</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6535,6 +7355,11 @@
       <c r="G165" t="inlineStr">
         <is>
           <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -6546,7 +7371,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6572,6 +7397,11 @@
       <c r="G166" t="inlineStr">
         <is>
           <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -6583,7 +7413,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6609,6 +7439,11 @@
       <c r="G167" t="inlineStr">
         <is>
           <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -6648,6 +7483,11 @@
           <t>2024-04-02</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6685,6 +7525,11 @@
           <t>2024-04-02</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6722,6 +7567,11 @@
           <t>2024-04-02</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6759,6 +7609,11 @@
           <t>2024-04-02</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6796,6 +7651,11 @@
           <t>2024-04-02</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6833,6 +7693,11 @@
           <t>2024-04-02</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6870,6 +7735,11 @@
           <t>2024-04-02</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6907,6 +7777,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6944,6 +7819,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6981,6 +7861,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7018,6 +7903,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7055,6 +7945,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7092,6 +7987,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7129,6 +8029,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7166,6 +8071,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7203,6 +8113,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7240,6 +8155,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7249,7 +8169,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7275,6 +8195,11 @@
       <c r="G185" t="inlineStr">
         <is>
           <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -7314,6 +8239,11 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7323,7 +8253,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7349,6 +8279,11 @@
       <c r="G187" t="inlineStr">
         <is>
           <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -7388,6 +8323,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7425,6 +8365,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7462,6 +8407,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7499,6 +8449,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7536,6 +8491,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7573,6 +8533,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7610,6 +8575,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7647,6 +8617,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7684,6 +8659,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7721,6 +8701,11 @@
           <t>2024-04-04</t>
         </is>
       </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7758,6 +8743,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7795,6 +8785,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7832,6 +8827,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7869,6 +8869,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7906,6 +8911,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7943,6 +8953,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7952,7 +8967,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7978,6 +8993,11 @@
       <c r="G204" t="inlineStr">
         <is>
           <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -7989,7 +9009,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8015,6 +9035,11 @@
       <c r="G205" t="inlineStr">
         <is>
           <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -8054,6 +9079,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8091,6 +9121,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8128,6 +9163,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8165,6 +9205,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8202,6 +9247,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8239,6 +9289,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8276,6 +9331,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8313,6 +9373,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8350,6 +9415,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8387,6 +9457,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8424,6 +9499,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8461,6 +9541,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8470,7 +9555,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8496,6 +9581,11 @@
       <c r="G218" t="inlineStr">
         <is>
           <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -8507,7 +9597,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8533,6 +9623,11 @@
       <c r="G219" t="inlineStr">
         <is>
           <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -8572,6 +9667,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8609,6 +9709,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8646,6 +9751,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8683,6 +9793,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8720,6 +9835,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8757,6 +9877,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8794,6 +9919,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8831,6 +9961,11 @@
           <t>2024-04-06</t>
         </is>
       </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8840,7 +9975,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8866,6 +10001,11 @@
       <c r="G228" t="inlineStr">
         <is>
           <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -8905,6 +10045,11 @@
           <t>2024-04-07</t>
         </is>
       </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8942,6 +10087,11 @@
           <t>2024-04-07</t>
         </is>
       </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8979,6 +10129,11 @@
           <t>2024-04-07</t>
         </is>
       </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9016,6 +10171,11 @@
           <t>2024-04-07</t>
         </is>
       </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9053,6 +10213,11 @@
           <t>2024-04-07</t>
         </is>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9090,6 +10255,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9127,6 +10297,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9136,7 +10311,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9162,6 +10337,11 @@
       <c r="G236" t="inlineStr">
         <is>
           <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -9201,6 +10381,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9238,6 +10423,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9275,6 +10465,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -9312,6 +10507,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -9349,6 +10549,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9386,6 +10591,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9423,6 +10633,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9460,6 +10675,11 @@
           <t>2024-04-08</t>
         </is>
       </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9497,6 +10717,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9506,7 +10731,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9532,6 +10757,11 @@
       <c r="G246" t="inlineStr">
         <is>
           <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -9571,6 +10801,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9608,6 +10843,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9645,6 +10885,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9682,6 +10927,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9719,6 +10969,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9756,6 +11011,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9793,6 +11053,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9830,6 +11095,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9867,6 +11137,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9904,6 +11179,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9913,7 +11193,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9939,6 +11219,11 @@
       <c r="G257" t="inlineStr">
         <is>
           <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -9978,6 +11263,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10015,6 +11305,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10052,6 +11347,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10089,6 +11389,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10126,6 +11431,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10163,6 +11473,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10200,6 +11515,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -10237,6 +11557,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -10274,6 +11599,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -10311,6 +11641,11 @@
           <t>2024-04-09</t>
         </is>
       </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -10348,6 +11683,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -10385,6 +11725,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -10422,6 +11767,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -10431,7 +11781,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -10457,6 +11807,11 @@
       <c r="G271" t="inlineStr">
         <is>
           <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -10496,6 +11851,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10533,6 +11893,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10570,6 +11935,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10607,6 +11977,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10644,6 +12019,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10681,6 +12061,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10718,6 +12103,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10755,6 +12145,11 @@
           <t>2024-04-10</t>
         </is>
       </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10764,7 +12159,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10790,6 +12185,11 @@
       <c r="G280" t="inlineStr">
         <is>
           <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -10801,7 +12201,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10827,6 +12227,11 @@
       <c r="G281" t="inlineStr">
         <is>
           <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -10866,6 +12271,11 @@
           <t>2024-04-11</t>
         </is>
       </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10903,6 +12313,11 @@
           <t>2024-04-11</t>
         </is>
       </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10940,6 +12355,11 @@
           <t>2024-04-11</t>
         </is>
       </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10977,6 +12397,11 @@
           <t>2024-04-11</t>
         </is>
       </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -11014,6 +12439,11 @@
           <t>2024-04-11</t>
         </is>
       </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11051,6 +12481,11 @@
           <t>2024-04-11</t>
         </is>
       </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -11088,6 +12523,11 @@
           <t>2024-04-12</t>
         </is>
       </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -11125,6 +12565,11 @@
           <t>2024-04-12</t>
         </is>
       </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -11162,6 +12607,11 @@
           <t>2024-04-12</t>
         </is>
       </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -11199,6 +12649,11 @@
           <t>2024-04-12</t>
         </is>
       </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -11236,6 +12691,11 @@
           <t>2024-04-12</t>
         </is>
       </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -11273,6 +12733,11 @@
           <t>2024-04-12</t>
         </is>
       </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -11310,6 +12775,11 @@
           <t>2024-04-12</t>
         </is>
       </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -11347,6 +12817,11 @@
           <t>2024-04-14</t>
         </is>
       </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -11384,6 +12859,11 @@
           <t>2024-04-27</t>
         </is>
       </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -11421,6 +12901,11 @@
           <t>2024-04-27</t>
         </is>
       </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -11458,6 +12943,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -11495,6 +12985,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -11532,6 +13027,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -11569,6 +13069,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -11606,6 +13111,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -11643,6 +13153,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -11680,6 +13195,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -11717,6 +13237,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -11754,6 +13279,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -11791,6 +13321,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -11828,6 +13363,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -11865,6 +13405,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -11902,6 +13447,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -11939,6 +13489,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -11976,6 +13531,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -12013,6 +13573,11 @@
           <t>2024-05-04</t>
         </is>
       </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -12050,6 +13615,11 @@
           <t>2024-05-04</t>
         </is>
       </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -12087,6 +13657,11 @@
           <t>2024-05-04</t>
         </is>
       </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -12124,6 +13699,11 @@
           <t>2024-05-04</t>
         </is>
       </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -12161,6 +13741,11 @@
           <t>2024-05-05</t>
         </is>
       </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -12198,6 +13783,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -12235,6 +13825,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -12272,6 +13867,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -12309,6 +13909,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -12346,6 +13951,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -12383,6 +13993,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -12420,6 +14035,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -12457,6 +14077,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -12494,6 +14119,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -12531,6 +14161,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -12568,6 +14203,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -12605,6 +14245,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -12642,6 +14287,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -12679,6 +14329,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -12716,6 +14371,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -12753,6 +14413,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -12790,6 +14455,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -12827,6 +14497,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -12864,6 +14539,11 @@
           <t>2024-05-07</t>
         </is>
       </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12901,6 +14581,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -12938,6 +14623,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12975,6 +14665,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -13012,6 +14707,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -13049,6 +14749,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -13086,6 +14791,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -13123,6 +14833,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -13160,6 +14875,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -13197,6 +14917,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -13234,6 +14959,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -13271,6 +15001,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -13308,6 +15043,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -13345,6 +15085,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -13354,7 +15099,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -13380,6 +15125,11 @@
       <c r="G350" t="inlineStr">
         <is>
           <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -13391,7 +15141,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -13417,6 +15167,11 @@
       <c r="G351" t="inlineStr">
         <is>
           <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -13456,6 +15211,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -13493,6 +15253,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -13530,6 +15295,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -13567,6 +15337,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -13604,6 +15379,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -13641,6 +15421,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -13678,6 +15463,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -13715,6 +15505,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -13752,6 +15547,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -13789,6 +15589,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -13826,6 +15631,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -13863,6 +15673,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -13900,6 +15715,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -13937,6 +15757,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -13974,6 +15799,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -14011,6 +15841,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -14048,6 +15883,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -14085,6 +15925,11 @@
           <t>2024-05-09</t>
         </is>
       </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -14122,6 +15967,11 @@
           <t>2024-05-10</t>
         </is>
       </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -14159,6 +16009,11 @@
           <t>2024-05-11</t>
         </is>
       </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -14196,6 +16051,11 @@
           <t>2024-05-11</t>
         </is>
       </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -14233,6 +16093,11 @@
           <t>2024-05-11</t>
         </is>
       </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -14270,6 +16135,11 @@
           <t>2024-05-11</t>
         </is>
       </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -14307,6 +16177,11 @@
           <t>2024-05-11</t>
         </is>
       </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -14344,6 +16219,11 @@
           <t>2024-05-12</t>
         </is>
       </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -14381,6 +16261,11 @@
           <t>2024-05-12</t>
         </is>
       </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -14418,6 +16303,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -14455,6 +16345,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -14492,6 +16387,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -14529,6 +16429,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -14538,7 +16443,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -14564,6 +16469,11 @@
       <c r="G382" t="inlineStr">
         <is>
           <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -14575,7 +16485,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -14601,6 +16511,11 @@
       <c r="G383" t="inlineStr">
         <is>
           <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -14640,6 +16555,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -14677,6 +16597,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -14714,6 +16639,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -14751,6 +16681,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -14788,6 +16723,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -14825,6 +16765,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -14862,6 +16807,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -14899,6 +16849,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -14936,6 +16891,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -14973,6 +16933,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -15010,6 +16975,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -15047,6 +17017,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -15084,6 +17059,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -15121,6 +17101,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -15158,6 +17143,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -15195,6 +17185,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -15204,7 +17199,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -15230,6 +17225,11 @@
       <c r="G400" t="inlineStr">
         <is>
           <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -15241,7 +17241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -15267,6 +17267,11 @@
       <c r="G401" t="inlineStr">
         <is>
           <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -15306,6 +17311,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -15343,6 +17353,11 @@
           <t>2024-05-14</t>
         </is>
       </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -15380,6 +17395,11 @@
           <t>2024-05-15</t>
         </is>
       </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -15417,16 +17437,21 @@
           <t>2024-05-15</t>
         </is>
       </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -15436,12 +17461,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:0</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -15452,18 +17477,23 @@
       <c r="G406" t="inlineStr">
         <is>
           <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>172759</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -15489,18 +17519,23 @@
       <c r="G407" t="inlineStr">
         <is>
           <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -15526,18 +17561,23 @@
       <c r="G408" t="inlineStr">
         <is>
           <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>TRẦN VĂN LƯU</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>234102</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -15563,18 +17603,23 @@
       <c r="G409" t="inlineStr">
         <is>
           <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>PHẠM NG NGỌC TUYẾT</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>234172</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -15600,18 +17645,23 @@
       <c r="G410" t="inlineStr">
         <is>
           <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>PHẠM NG NGỌC TUYẾT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>234172</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -15637,18 +17687,23 @@
       <c r="G411" t="inlineStr">
         <is>
           <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>TRƯƠNG VĂN MINH</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>203591</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -15673,19 +17728,24 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>TRƯƠNG VĂN MINH</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>203591</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -15711,18 +17771,23 @@
       <c r="G413" t="inlineStr">
         <is>
           <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -15748,18 +17813,23 @@
       <c r="G414" t="inlineStr">
         <is>
           <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -15785,18 +17855,23 @@
       <c r="G415" t="inlineStr">
         <is>
           <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>LÊ QUỐC TRUNG</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>224016</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -15811,7 +17886,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -15822,18 +17897,23 @@
       <c r="G416" t="inlineStr">
         <is>
           <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -15859,18 +17939,23 @@
       <c r="G417" t="inlineStr">
         <is>
           <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -15885,7 +17970,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -15896,18 +17981,23 @@
       <c r="G418" t="inlineStr">
         <is>
           <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>193273</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -15933,18 +18023,23 @@
       <c r="G419" t="inlineStr">
         <is>
           <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>PHẠM THỊ PHƯƠNG</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -15954,7 +18049,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -15969,19 +18064,24 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>LÊ HUỲNH ANH KHOA</t>
+          <t>PHẠM THỊ PHƯƠNG</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>234168</t>
+          <t>172684</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -15991,12 +18091,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>19:0</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -16007,18 +18107,23 @@
       <c r="G421" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>NGUYỄN THỊ DIỄM MY</t>
+          <t>LÊ HUỲNH ANH KHOA</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>213714</t>
+          <t>234168</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -16028,12 +18133,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:0</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -16044,18 +18149,23 @@
       <c r="G422" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>TRƯƠNG TƯ XUÂN</t>
+          <t>NGUYỄN THỊ DIỄM MY</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>080262</t>
+          <t>213714</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -16081,18 +18191,23 @@
       <c r="G423" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>NGUYỄN TUẤN ANH</t>
+          <t>TRƯƠNG TƯ XUÂN</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>224057</t>
+          <t>80262</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -16118,18 +18233,23 @@
       <c r="G424" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>TRƯƠNG THÀNH TAM</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>080427</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -16144,7 +18264,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>B/T</t>
+          <t>TEST REQUEST</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -16155,18 +18275,23 @@
       <c r="G425" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>btn_14</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>LÊ THANH TUẤN</t>
+          <t>TRƯƠNG THÀNH TAM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>101339</t>
+          <t>80427</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -16181,7 +18306,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -16192,18 +18317,23 @@
       <c r="G426" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>LÊ MINH THẮNG</t>
+          <t>LÊ THANH TUẤN</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>223906</t>
+          <t>101339</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -16229,18 +18359,23 @@
       <c r="G427" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ MINH THẮNG</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>223906</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -16266,6 +18401,11 @@
       <c r="G428" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -16305,16 +18445,21 @@
           <t>2024-05-17</t>
         </is>
       </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -16340,6 +18485,11 @@
       <c r="G430" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -16379,16 +18529,21 @@
           <t>2024-05-17</t>
         </is>
       </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>LÊ QUỐC TRUNG</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>224016</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -16403,7 +18558,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>TEST REQUEST</t>
+          <t>B/T</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -16414,18 +18569,23 @@
       <c r="G432" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN MAI PHƯƠNG</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234170</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -16451,18 +18611,23 @@
       <c r="G433" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>NGUYỄN QUANG QUÍ</t>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>203638</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -16488,18 +18653,23 @@
       <c r="G434" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>TRẦN VĂN LƯU</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>234102</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -16525,18 +18695,23 @@
       <c r="G435" t="inlineStr">
         <is>
           <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>224057</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -16546,7 +18721,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -16561,118 +18736,12 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>LÊ QUỐC TRUNG</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>224016</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>B/T</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>NGUYỄN MAI PHƯƠNG</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>234170</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>TEST REQUEST</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>BÙI ĐÌNH HỒNG PHÚC</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>193273</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>TEST REQUEST</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>2024-05-17</t>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>btn_14</t>
         </is>
       </c>
     </row>

--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H436"/>
+  <dimension ref="A1:H444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -18742,6 +18742,342 @@
       <c r="H436" t="inlineStr">
         <is>
           <t>btn_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>LÊ MINH THẮNG</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>223906</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>btn_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>LÊ QUỐC TRUNG</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>224016</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>19:0</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>btn_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>btn_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>TRẦN VĂN LƯU</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>234102</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>btn_15</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>172684</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>btn_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>NGUYỄN QUANG QUÍ</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>203638</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>btn_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>LÊ MINH THẮNG</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>223906</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>btn_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>LÊ HUỲNH ANH KHOA</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>234168</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>btn_16</t>
         </is>
       </c>
     </row>

--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H444"/>
+  <dimension ref="A1:H453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19081,6 +19081,384 @@
         </is>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>NGUYỄN TUẤN ANH</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>224057</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>btn_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>172684</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>btn_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>TRƯƠNG VĂN MINH</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>203591</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>btn_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>LÊ MINH THẮNG</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>223906</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>btn_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>NGUYỄN HOÀNG VIỆT</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>172759</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>btn_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>TRẦN VĂN LƯU</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>234102</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>btn_15</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>LÊ HUỲNH ANH KHOA</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>234168</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>btn_16</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>NGUYỄN QUANG QUÍ</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>203638</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>btn_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>NGUYỄN TUẤN ANH</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>224057</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>btn_14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/log.xlsx
+++ b/log.xlsx
@@ -19435,7 +19435,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">

--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H453"/>
+  <dimension ref="A1:H465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19435,7 +19435,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -19454,6 +19454,510 @@
         </is>
       </c>
       <c r="H453" t="inlineStr">
+        <is>
+          <t>btn_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>TRƯƠNG TƯ XUÂN</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>80262</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>btn_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>TRƯƠNG THÀNH TAM</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>80427</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>btn_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>LÊ THANH TUẤN</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>101339</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>btn_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ DIỄM MY</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>213714</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>btn_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>LÊ QUỐC TRUNG</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>224016</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>btn_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>LÊ MINH THẮNG</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>223906</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>btn_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>193273</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>btn_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>NGUYỄN QUANG QUÍ</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>203638</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>btn_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>TRƯƠNG VĂN MINH</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>203591</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>btn_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>TRẦN VĂN LƯU</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>234102</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>btn_15</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>LÊ HUỲNH ANH KHOA</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>234168</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>btn_16</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>NGUYỄN TUẤN ANH</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>224057</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
         <is>
           <t>btn_14</t>
         </is>
